--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>141.015196428898</v>
+        <v>6.305023228865777</v>
       </c>
       <c r="R2">
-        <v>1269.136767860082</v>
+        <v>56.745209059792</v>
       </c>
       <c r="S2">
-        <v>0.274084447576781</v>
+        <v>0.01950610157132724</v>
       </c>
       <c r="T2">
-        <v>0.2740844475767811</v>
+        <v>0.01950610157132724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
         <v>143.0337315137671</v>
@@ -632,10 +632,10 @@
         <v>1287.303583623904</v>
       </c>
       <c r="S3">
-        <v>0.278007777031062</v>
+        <v>0.4425091540123311</v>
       </c>
       <c r="T3">
-        <v>0.278007777031062</v>
+        <v>0.4425091540123311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
         <v>78.32180641531156</v>
       </c>
       <c r="R4">
-        <v>704.896257737804</v>
+        <v>704.8962577378039</v>
       </c>
       <c r="S4">
-        <v>0.1522303240231285</v>
+        <v>0.2423072930473132</v>
       </c>
       <c r="T4">
-        <v>0.1522303240231285</v>
+        <v>0.2423072930473132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>59.19874916037299</v>
+        <v>2.646874223688</v>
       </c>
       <c r="R5">
-        <v>532.7887424433569</v>
+        <v>23.821868013192</v>
       </c>
       <c r="S5">
-        <v>0.1150617583902625</v>
+        <v>0.008188740244034582</v>
       </c>
       <c r="T5">
-        <v>0.1150617583902625</v>
+        <v>0.008188740244034582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>60.046138343856</v>
@@ -818,10 +818,10 @@
         <v>540.415245094704</v>
       </c>
       <c r="S6">
-        <v>0.1167087879453685</v>
+        <v>0.1857671305854846</v>
       </c>
       <c r="T6">
-        <v>0.1167087879453685</v>
+        <v>0.1857671305854845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,13 +865,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>32.879810752206</v>
@@ -880,10 +880,10 @@
         <v>295.918296769854</v>
       </c>
       <c r="S7">
-        <v>0.06390690503339756</v>
+        <v>0.1017215805395094</v>
       </c>
       <c r="T7">
-        <v>0.06390690503339756</v>
+        <v>0.1017215805395094</v>
       </c>
     </row>
   </sheetData>
